--- a/BEC/02-口语相关/BEC口试点睛100词.xlsx
+++ b/BEC/02-口语相关/BEC口试点睛100词.xlsx
@@ -4,19 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="12480" windowHeight="9060"/>
+    <workbookView windowWidth="10668" windowHeight="9047"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="413">
   <si>
     <t>英语</t>
   </si>
@@ -683,6 +681,588 @@
   </si>
   <si>
     <t>客户关系管理</t>
+  </si>
+  <si>
+    <t>职业种类</t>
+  </si>
+  <si>
+    <t>receptionist</t>
+  </si>
+  <si>
+    <t>接待员</t>
+  </si>
+  <si>
+    <t>security guide</t>
+  </si>
+  <si>
+    <t>保镖</t>
+  </si>
+  <si>
+    <t>sales representative</t>
+  </si>
+  <si>
+    <t>销售代表</t>
+  </si>
+  <si>
+    <t>consultant</t>
+  </si>
+  <si>
+    <t>顾问，咨询师</t>
+  </si>
+  <si>
+    <t>courier</t>
+  </si>
+  <si>
+    <t>信件递送员，通信员</t>
+  </si>
+  <si>
+    <t>mechanic</t>
+  </si>
+  <si>
+    <t>机械师</t>
+  </si>
+  <si>
+    <t>product manager</t>
+  </si>
+  <si>
+    <t>产品经理</t>
+  </si>
+  <si>
+    <t>real estate agent</t>
+  </si>
+  <si>
+    <t>房地产代理商</t>
+  </si>
+  <si>
+    <t>analyst</t>
+  </si>
+  <si>
+    <t>分析员</t>
+  </si>
+  <si>
+    <t>accountant</t>
+  </si>
+  <si>
+    <t>会计</t>
+  </si>
+  <si>
+    <t>assistant</t>
+  </si>
+  <si>
+    <t>助手</t>
+  </si>
+  <si>
+    <t>IT technician</t>
+  </si>
+  <si>
+    <t>网络技术员</t>
+  </si>
+  <si>
+    <t>tech-support</t>
+  </si>
+  <si>
+    <t>技术支持</t>
+  </si>
+  <si>
+    <t>对职业的描述</t>
+  </si>
+  <si>
+    <t>market trend</t>
+  </si>
+  <si>
+    <t>市场趋势</t>
+  </si>
+  <si>
+    <t>offering discount</t>
+  </si>
+  <si>
+    <t>打折</t>
+  </si>
+  <si>
+    <t>launching campaigns</t>
+  </si>
+  <si>
+    <t>搞(促销)活动</t>
+  </si>
+  <si>
+    <t>marketing plans</t>
+  </si>
+  <si>
+    <t>营销计划</t>
+  </si>
+  <si>
+    <t>territories</t>
+  </si>
+  <si>
+    <t>销售区</t>
+  </si>
+  <si>
+    <t>sales presentation</t>
+  </si>
+  <si>
+    <t>销售报告</t>
+  </si>
+  <si>
+    <t>badge</t>
+  </si>
+  <si>
+    <t>胸卡</t>
+  </si>
+  <si>
+    <t>有关会计(Accountant)的词汇</t>
+  </si>
+  <si>
+    <t>budgeting</t>
+  </si>
+  <si>
+    <t>预算</t>
+  </si>
+  <si>
+    <t>transaction</t>
+  </si>
+  <si>
+    <t>交易</t>
+  </si>
+  <si>
+    <t>outstanding account</t>
+  </si>
+  <si>
+    <t>未决账项</t>
+  </si>
+  <si>
+    <t>title of account</t>
+  </si>
+  <si>
+    <t>会计报表</t>
+  </si>
+  <si>
+    <t>account receivable</t>
+  </si>
+  <si>
+    <t>应收账</t>
+  </si>
+  <si>
+    <t>credit account</t>
+  </si>
+  <si>
+    <t>贷方账项</t>
+  </si>
+  <si>
+    <t>debit account</t>
+  </si>
+  <si>
+    <t>借方账项</t>
+  </si>
+  <si>
+    <t>account-book</t>
+  </si>
+  <si>
+    <t>账簿</t>
+  </si>
+  <si>
+    <t>to close an account</t>
+  </si>
+  <si>
+    <t>结账</t>
+  </si>
+  <si>
+    <t>to keep account</t>
+  </si>
+  <si>
+    <t>继续记账</t>
+  </si>
+  <si>
+    <t>有关人事工作(Human Resource)的词汇</t>
+  </si>
+  <si>
+    <t>recruitment</t>
+  </si>
+  <si>
+    <t>招收</t>
+  </si>
+  <si>
+    <t>staff promotion</t>
+  </si>
+  <si>
+    <t>人员提职</t>
+  </si>
+  <si>
+    <t>verify suitability</t>
+  </si>
+  <si>
+    <t>考核适应度</t>
+  </si>
+  <si>
+    <t>monitor staff performance</t>
+  </si>
+  <si>
+    <t>监管员工表现</t>
+  </si>
+  <si>
+    <t>people cost review</t>
+  </si>
+  <si>
+    <t>人力成本评述</t>
+  </si>
+  <si>
+    <t>有关技术工作(Technology)的词汇</t>
+  </si>
+  <si>
+    <t>software and hardware installation</t>
+  </si>
+  <si>
+    <t>软件及硬件的安装</t>
+  </si>
+  <si>
+    <t>desktop</t>
+  </si>
+  <si>
+    <t>桌面</t>
+  </si>
+  <si>
+    <t>troubleshooting</t>
+  </si>
+  <si>
+    <t>解决问题</t>
+  </si>
+  <si>
+    <t>virus updates</t>
+  </si>
+  <si>
+    <t>病毒升级</t>
+  </si>
+  <si>
+    <t>setup and maintain the PCs</t>
+  </si>
+  <si>
+    <t>安装和维护个人电脑</t>
+  </si>
+  <si>
+    <t>fire-wall</t>
+  </si>
+  <si>
+    <t>防火墙</t>
+  </si>
+  <si>
+    <t>server</t>
+  </si>
+  <si>
+    <t>服务器</t>
+  </si>
+  <si>
+    <t>configuration</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>backup</t>
+  </si>
+  <si>
+    <t>备份</t>
+  </si>
+  <si>
+    <t>printer</t>
+  </si>
+  <si>
+    <t>打印机</t>
+  </si>
+  <si>
+    <t>有关秘书(Secretary)的词汇</t>
+  </si>
+  <si>
+    <t>screen calls</t>
+  </si>
+  <si>
+    <t>筛选电话</t>
+  </si>
+  <si>
+    <t>take message</t>
+  </si>
+  <si>
+    <t>记录留言</t>
+  </si>
+  <si>
+    <t>word processing</t>
+  </si>
+  <si>
+    <t>文字处理</t>
+  </si>
+  <si>
+    <t>transcribe</t>
+  </si>
+  <si>
+    <t>记录；抄录</t>
+  </si>
+  <si>
+    <t>coordinate internal and external meetings</t>
+  </si>
+  <si>
+    <t>协调内部及外部会议</t>
+  </si>
+  <si>
+    <t>receive guests and visitors</t>
+  </si>
+  <si>
+    <t>接待客人和来访者</t>
+  </si>
+  <si>
+    <t>deal with files and correspondence</t>
+  </si>
+  <si>
+    <t>处理文件和信件</t>
+  </si>
+  <si>
+    <t>有关接待员(Receptionist)的词汇</t>
+  </si>
+  <si>
+    <t>answer incoming calls</t>
+  </si>
+  <si>
+    <t>接收来电</t>
+  </si>
+  <si>
+    <t>responsible for visitor entertaining</t>
+  </si>
+  <si>
+    <t>款待客人</t>
+  </si>
+  <si>
+    <t>collect the reimbursement materials</t>
+  </si>
+  <si>
+    <t>收集报销材料</t>
+  </si>
+  <si>
+    <t>vehicle dispatching management</t>
+  </si>
+  <si>
+    <t>安排车辆</t>
+  </si>
+  <si>
+    <t>有关导游(Tour Guide)的词汇</t>
+  </si>
+  <si>
+    <t>travel agency</t>
+  </si>
+  <si>
+    <t>旅游局</t>
+  </si>
+  <si>
+    <t>historical sites</t>
+  </si>
+  <si>
+    <t>历史古迹</t>
+  </si>
+  <si>
+    <t>sightseeing</t>
+  </si>
+  <si>
+    <t>观光</t>
+  </si>
+  <si>
+    <t>river cruise</t>
+  </si>
+  <si>
+    <t>江上观光</t>
+  </si>
+  <si>
+    <t>excursion</t>
+  </si>
+  <si>
+    <t>短途旅行</t>
+  </si>
+  <si>
+    <t>customs</t>
+  </si>
+  <si>
+    <t>风俗</t>
+  </si>
+  <si>
+    <t>有关房地产(Real Estate)的词汇</t>
+  </si>
+  <si>
+    <t>properties</t>
+  </si>
+  <si>
+    <t>财产</t>
+  </si>
+  <si>
+    <t>commission</t>
+  </si>
+  <si>
+    <t>佣金</t>
+  </si>
+  <si>
+    <t>loan</t>
+  </si>
+  <si>
+    <t>贷款</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>guarantor</t>
+  </si>
+  <si>
+    <t>担保人</t>
+  </si>
+  <si>
+    <t>premise</t>
+  </si>
+  <si>
+    <t>店铺</t>
+  </si>
+  <si>
+    <t>forward delivery housing</t>
+  </si>
+  <si>
+    <t>期房</t>
+  </si>
+  <si>
+    <t>complete department/flat</t>
+  </si>
+  <si>
+    <t>现房</t>
+  </si>
+  <si>
+    <t>有关产品研发(Product Research Development)的词汇</t>
+  </si>
+  <si>
+    <t>launch new product</t>
+  </si>
+  <si>
+    <t>推出新产品</t>
+  </si>
+  <si>
+    <t>innovating packaging</t>
+  </si>
+  <si>
+    <t>创新包装</t>
+  </si>
+  <si>
+    <t>production planning</t>
+  </si>
+  <si>
+    <t>生产规划</t>
+  </si>
+  <si>
+    <t>quality control</t>
+  </si>
+  <si>
+    <t>质量控制</t>
+  </si>
+  <si>
+    <t>project management</t>
+  </si>
+  <si>
+    <t>项目管理</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>样品</t>
+  </si>
+  <si>
+    <t>deadline</t>
+  </si>
+  <si>
+    <t>截止日期</t>
+  </si>
+  <si>
+    <t>有关保险(Insurance)的词汇</t>
+  </si>
+  <si>
+    <t>cargo insurance</t>
+  </si>
+  <si>
+    <t>货物保险</t>
+  </si>
+  <si>
+    <t>branch of insurance</t>
+  </si>
+  <si>
+    <t>保险类别</t>
+  </si>
+  <si>
+    <t>coverage</t>
+  </si>
+  <si>
+    <t>保险总额</t>
+  </si>
+  <si>
+    <t>life insurance</t>
+  </si>
+  <si>
+    <t>人寿保险</t>
+  </si>
+  <si>
+    <t>insurance premium</t>
+  </si>
+  <si>
+    <t>保险费</t>
+  </si>
+  <si>
+    <t>policy-holder</t>
+  </si>
+  <si>
+    <t>保险客户</t>
+  </si>
+  <si>
+    <t>notice of loss</t>
+  </si>
+  <si>
+    <t>损害通知书</t>
+  </si>
+  <si>
+    <t>renew</t>
+  </si>
+  <si>
+    <t>续保</t>
+  </si>
+  <si>
+    <t>loss ratio</t>
+  </si>
+  <si>
+    <t>赔付率</t>
+  </si>
+  <si>
+    <t>survey</t>
+  </si>
+  <si>
+    <t>查勘</t>
+  </si>
+  <si>
+    <t>indemnify</t>
+  </si>
+  <si>
+    <t>赔款</t>
+  </si>
+  <si>
+    <t>natural losses</t>
+  </si>
+  <si>
+    <t>自然损耗</t>
+  </si>
+  <si>
+    <t>natural calamities</t>
+  </si>
+  <si>
+    <t>自然灾害</t>
+  </si>
+  <si>
+    <t>deposit premium</t>
+  </si>
+  <si>
+    <t>预付保险费</t>
+  </si>
+  <si>
+    <t>expiration of policy</t>
+  </si>
+  <si>
+    <t>保险单期满</t>
   </si>
 </sst>
 </file>
@@ -1313,7 +1893,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1322,12 +1902,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1643,10 +2217,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B131"/>
+  <dimension ref="A1:B245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="D130" sqref="D130"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="E237" sqref="E237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="1"/>
@@ -1667,18 +2241,18 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1721,7 +2295,7 @@
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
@@ -1767,7 +2341,7 @@
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
@@ -1837,7 +2411,7 @@
       <c r="A27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="5"/>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
@@ -1904,10 +2478,10 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="3"/>
+      <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
@@ -1982,10 +2556,10 @@
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B48" s="3"/>
+      <c r="B48" s="2"/>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
@@ -2044,10 +2618,10 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B57" s="3"/>
+      <c r="B57" s="2"/>
     </row>
     <row r="58" ht="31.2" spans="1:2">
       <c r="A58" s="1" t="s">
@@ -2098,10 +2672,10 @@
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B65" s="3"/>
+      <c r="B65" s="2"/>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
@@ -2152,10 +2726,10 @@
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B73" s="3"/>
+      <c r="B73" s="2"/>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
@@ -2214,10 +2788,10 @@
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B82" s="3"/>
+      <c r="B82" s="2"/>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
@@ -2268,10 +2842,10 @@
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B90" s="3"/>
+      <c r="B90" s="2"/>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
@@ -2322,10 +2896,10 @@
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B98" s="3"/>
+      <c r="B98" s="2"/>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
@@ -2392,10 +2966,10 @@
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B108" s="3"/>
+      <c r="B108" s="2"/>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
@@ -2438,10 +3012,10 @@
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B115" s="3"/>
+      <c r="B115" s="2"/>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1" t="s">
@@ -2500,10 +3074,10 @@
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B124" s="3"/>
+      <c r="B124" s="2"/>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1" t="s">
@@ -2561,8 +3135,810 @@
         <v>218</v>
       </c>
     </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B133" s="2"/>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B148" s="2"/>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B157" s="3"/>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B169" s="2"/>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="173" ht="31.2" spans="1:2">
+      <c r="A173" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B176" s="2"/>
+    </row>
+    <row r="177" ht="31.2" spans="1:2">
+      <c r="A177" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="181" ht="31.2" spans="1:2">
+      <c r="A181" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B188" s="2"/>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="193" ht="31.2" spans="1:2">
+      <c r="A193" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="194" ht="31.2" spans="1:2">
+      <c r="A194" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="195" ht="31.2" spans="1:2">
+      <c r="A195" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B197" s="2"/>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="199" ht="31.2" spans="1:2">
+      <c r="A199" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="200" ht="46.8" spans="1:2">
+      <c r="A200" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="201" ht="31.2" spans="1:2">
+      <c r="A201" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B203" s="2"/>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B211" s="2"/>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="218" ht="31.2" spans="1:2">
+      <c r="A218" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="219" ht="31.2" spans="1:2">
+      <c r="A219" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="221" ht="38" customHeight="1" spans="1:2">
+      <c r="A221" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B221" s="2"/>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B230" s="2"/>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="26">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A17:B17"/>
@@ -2578,43 +3954,20 @@
     <mergeCell ref="A108:B108"/>
     <mergeCell ref="A115:B115"/>
     <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A230:B230"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/BEC/02-口语相关/BEC口试点睛100词.xlsx
+++ b/BEC/02-口语相关/BEC口试点睛100词.xlsx
@@ -203,7 +203,7 @@
     <t>Ways of working</t>
   </si>
   <si>
-    <t>flextime</t>
+    <t>flexitime</t>
   </si>
   <si>
     <t>弹性工作时间</t>
@@ -2219,8 +2219,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="E237" sqref="E237"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="1"/>
